--- a/PySteelFraming.tab/GetDataFromColumnAndFraming.panel/TestDataToExcel.pushbutton/Data_CSV/CodeDataCSV/new_big_file.xlsx
+++ b/PySteelFraming.tab/GetDataFromColumnAndFraming.panel/TestDataToExcel.pushbutton/Data_CSV/CodeDataCSV/new_big_file.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="630" yWindow="555" windowWidth="27495" windowHeight="11445" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11445" windowWidth="27495" xWindow="630" yWindow="555"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General Member" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="General Member" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -301,75 +301,75 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -664,23 +664,23 @@
   </sheetPr>
   <dimension ref="A1:AQ499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="32.85546875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="31.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="44.140625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="33.140625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="32.85546875" customWidth="1" style="2" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="16.28515625" customWidth="1" min="7" max="7"/>
-    <col width="9.7109375" customWidth="1" min="8" max="8"/>
+    <col customWidth="1" max="1" min="1" style="2" width="32.85546875"/>
+    <col customWidth="1" max="2" min="2" style="2" width="31.140625"/>
+    <col customWidth="1" max="3" min="3" style="2" width="44.140625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="33.140625"/>
+    <col customWidth="1" max="5" min="5" style="2" width="32.85546875"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="16.28515625"/>
+    <col customWidth="1" max="8" min="8" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="55.5" customHeight="1">
+    <row customHeight="1" ht="55.5" r="1">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>General Parameter For Framing</t>
@@ -1611,7 +1611,7 @@
       <c r="AP19" s="1" t="n"/>
       <c r="AQ19" s="1" t="n"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
+    <row customHeight="1" ht="18.75" r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
           <t>Column Selected</t>
@@ -1662,7 +1662,7 @@
       <c r="AP20" s="1" t="n"/>
       <c r="AQ20" s="1" t="n"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="21">
       <c r="A21" s="20" t="inlineStr">
         <is>
           <t>Column_Left</t>
@@ -1937,7 +1937,7 @@
       <c r="AP25" s="1" t="n"/>
       <c r="AQ25" s="1" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
@@ -2166,7 +2166,7 @@
       <c r="AP30" s="1" t="n"/>
       <c r="AQ30" s="1" t="n"/>
     </row>
-    <row r="31" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="31">
       <c r="A31" s="20" t="inlineStr">
         <is>
           <t>Count_Continue</t>
@@ -2520,7 +2520,7 @@
       <c r="AP36" s="1" t="n"/>
       <c r="AQ36" s="1" t="n"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n"/>
@@ -2565,7 +2565,7 @@
       <c r="AP37" s="1" t="n"/>
       <c r="AQ37" s="1" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n"/>
@@ -23600,7 +23600,7 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B49:G49"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/PySteelFraming.tab/GetDataFromColumnAndFraming.panel/TestDataToExcel.pushbutton/Data_CSV/CodeDataCSV/new_big_file.xlsx
+++ b/PySteelFraming.tab/GetDataFromColumnAndFraming.panel/TestDataToExcel.pushbutton/Data_CSV/CodeDataCSV/new_big_file.xlsx
@@ -668,7 +668,7 @@
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="32.85546875"/>
     <col customWidth="1" max="2" min="2" style="2" width="31.140625"/>
